--- a/pred_ohlcv/54_21/2020-01-21 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FAB ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-1789014.321646529</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1740229.587441435</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1740200.587441435</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1740293.206141435</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1804657.159141435</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1419470.897141435</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1490583.841986537</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1406595.944537661</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1445617.134237661</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1445675.134237661</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1445646.134237661</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1451497.869237661</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3126116.931450557</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3116161.227850557</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2908237.28520993</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2434856.445909929</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2399498.878279184</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2421395.464679184</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2421365.464679184</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2501979.107379185</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2491480.831479185</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2491480.831479185</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2491353.831479185</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2491353.831479185</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2491353.831479185</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2431875.069537918</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2444035.348137918</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2309005.348137918</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2321907.551981974</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2499932.922181974</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2492220.095081974</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2786048.455113694</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-3269821.223213694</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3264001.786613693</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3163001.579041195</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-3160742.913613693</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3182116.236313693</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3197921.867013693</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3232038.024613693</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-3221016.439682114</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-4029293.861325614</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4056539.231725614</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4050401.502925614</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4039886.627225614</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4215026.494225614</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3941528.122125614</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3652162.239225614</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3240475.04400985</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3749562.212633598</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3761386.051809248</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3782688.089209247</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3282272.186939012</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3120025.794670789</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3665824.375439355</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-3665795.375439355</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3665795.375439355</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3665795.375439355</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3602134.801339355</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3355630.048039355</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3319140.129739355</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-3329252.078546969</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3161182.695046969</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3161373.695046969</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3149991.924513636</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-2951115.801213636</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-2951115.801213636</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3208832.819250331</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-3232176.228050331</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-3170061.522450331</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-3172178.108350331</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-3172301.817650331</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-3861174.097039845</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-3861174.097039845</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-3715676.218611503</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-3622324.283211503</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-3455215.326011503</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-3399265.512211503</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-3416868.355370996</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-3416868.355370996</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-3405336.712970996</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-3432556.918670996</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-3431520.112670996</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-3481476.566970996</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-3479373.517470996</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-3501614.684770996</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-3628408.934970996</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3628356.976170996</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-3635362.586370996</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-3635336.586370996</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3635627.820870996</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3619556.508570996</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3656779.755770996</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-3671959.963747037</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-3629256.685321626</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-3609490.621626103</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-3607267.297626103</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-3607267.297626103</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-3607267.297626103</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3600444.101826103</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3600504.101826103</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3600504.101826103</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3636174.660326103</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3633771.545826103</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3639271.545826103</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3639271.545826103</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3410759.680926103</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3198951.479726103</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3198951.479726103</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3199829.371026102</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3200152.731226103</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3107831.009526103</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3257664.371726103</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-3148133.493026103</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-3148219.270626103</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-3046054.510358257</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-3053733.590058257</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3053821.095558257</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3053879.095558257</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3054048.037058257</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-2906974.013958257</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-2907110.788758257</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-2902598.961722299</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-2912336.693722298</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-2851703.909722298</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-2851923.468222298</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-2868221.668722298</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-2865275.670622298</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2866341.819022297</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-2886716.942469048</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-2886926.618369048</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-2869811.901818839</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-2870079.645318839</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-2857085.376818839</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-2857312.07601884</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-2857312.07601884</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-2857585.07601884</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-2857833.030618839</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-2862096.90301884</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-2815083.38621884</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-2815083.38621884</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-2814983.38621884</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-2817263.16481884</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3026879.10831884</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-2897097.04551884</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-2900297.20381884</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-2902297.220618839</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-2899320.083018839</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-2906144.99351884</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-4170072.587004856</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-4170044.587004856</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-4170044.587004856</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4103013.163127818</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-4103086.256888535</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-4103086.256888535</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-4103717.708988535</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-4110235.684888535</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-4111902.074888535</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-4111875.074888535</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-4113686.020888535</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-4061320.276188535</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-4037226.006688535</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-4037226.006688535</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4037197.006688535</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4031831.206521962</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4031831.206521962</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-4031921.206521962</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4031921.206521962</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-3894883.464853202</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-3690051.456753202</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-3636113.799957029</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-3580477.59310339</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3426454.023648508</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3415814.466330564</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-3386121.040748508</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3343715.714398717</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-3269229.297198717</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-3182253.559298716</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2776232.967298717</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-2785335.242398717</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2964925.345002544</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2867790.555302544</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-2754334.424102544</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2754334.424102544</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-2724511.009402544</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2695367.314906371</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2695367.314906371</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-2668248.183406371</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2671354.351506371</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2671354.351506371</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-2671199.338383011</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-2684403.143783011</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2707393.938183011</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2928724.574183011</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2908430.534083011</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2862731.416528957</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-3510427.247243969</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3481068.197343968</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3336275.997543968</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FAB ohlcv.xlsx
@@ -4188,7 +4188,7 @@
         <v>-2908237.28520993</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2434856.445909929</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2434956.72350993</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2435264.52520993</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2396073.595779184</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2396216.693379184</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2400880.171779184</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2400880.171779184</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2421591.825479184</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2419545.719579184</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2431875.069537918</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2393187.681237918</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2392317.007137918</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2398951.366937919</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2401451.593137919</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2382966.130037919</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2363354.359037919</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2397254.751537919</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2397254.751537919</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3240475.04400985</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3749562.212633598</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3761386.051809248</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3782688.089209247</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3282272.186939012</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3008096.787539355</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3241877.564739355</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3220827.217539355</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3220827.217539355</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-3454271.674939355</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3161182.695046969</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3161373.695046969</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3149991.924513636</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-2951115.801213636</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-2951415.801213636</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3110479.329850331</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3211512.735750331</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3208832.819250331</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-3232176.228050331</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-3170061.522450331</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4192005.172128488</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-3861174.097039845</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-3931841.151039845</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-3909131.546128489</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-3909131.546128489</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-3884461.110012499</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-3840083.055512499</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-3715676.218611503</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-3622324.283211503</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-3455215.326011503</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-3399265.512211503</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-3416868.355370996</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-3416868.355370996</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-3405336.712970996</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-3432556.918670996</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-3431520.112670996</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-3481476.566970996</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-3479373.517470996</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-3501614.684770996</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-3628408.934970996</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3628356.976170996</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-3635362.586370996</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-3635336.586370996</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3635627.820870996</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3619556.508570996</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3656779.755770996</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-3671959.963747037</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-3629256.685321626</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-3609490.621626103</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-3607267.297626103</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3600444.101826103</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3600504.101826103</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3600504.101826103</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3636174.660326103</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3633771.545826103</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3639271.545826103</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3639271.545826103</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3410759.680926103</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3198951.479726103</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3198951.479726103</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3199829.371026102</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3200152.731226103</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3107831.009526103</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3257664.371726103</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-3148133.493026103</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-4170072.587004856</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-4170072.587004856</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-4170044.587004856</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-4170044.587004856</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4103013.163127818</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-4074909.956312448</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-4092058.956588535</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-4102999.755988535</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-4103086.256888535</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-4103086.256888535</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-4103717.708988535</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-4110235.684888535</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-4111902.074888535</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-4111875.074888535</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-4113686.020888535</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-4061320.276188535</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-4037226.006688535</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-4037226.006688535</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4037197.006688535</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4031831.206521962</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4031831.206521962</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-4031921.206521962</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4031921.206521962</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-3894883.464853202</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-3690051.456753202</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-3636113.799957029</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-3580477.59310339</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3426454.023648508</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3415814.466330564</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-3386121.040748508</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3343715.714398717</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-3269229.297198717</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-3182253.559298716</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2776232.967298717</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-2785335.242398717</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2964925.345002544</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2671354.351506371</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2671354.351506371</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
